--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=session-failed for app=Healthily.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=session-failed for app=Healthily.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.278</v>
+        <v>0.321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005</v>
+        <v>0.058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.178</v>
+        <v>0.161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.199</v>
+        <v>0.112</v>
       </c>
       <c r="H4" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.042</v>
+        <v>0.093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.296</v>
+        <v>0.401</v>
       </c>
       <c r="L4" t="n">
-        <v>0.104</v>
+        <v>0.118</v>
       </c>
       <c r="M4" t="n">
-        <v>0.322</v>
+        <v>0.343</v>
       </c>
       <c r="N4" t="n">
-        <v>0.407</v>
+        <v>0.277</v>
       </c>
       <c r="O4" t="n">
-        <v>0.059</v>
+        <v>0.016</v>
       </c>
       <c r="P4" t="n">
-        <v>0.244</v>
+        <v>0.126</v>
       </c>
       <c r="Q4" t="n">
         <v>0.722</v>
       </c>
       <c r="R4" t="n">
-        <v>0.117</v>
+        <v>0.154</v>
       </c>
       <c r="S4" t="n">
-        <v>0.342</v>
+        <v>0.393</v>
       </c>
       <c r="T4" t="n">
-        <v>0.417</v>
+        <v>0.398</v>
       </c>
       <c r="U4" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.139</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
         <v>0.373</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.426</v>
-      </c>
       <c r="AC4" t="n">
-        <v>0.162</v>
+        <v>0.139</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.167</v>
+        <v>0.075</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.143</v>
+        <v>2.096</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.127</v>
+        <v>0.097</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.356</v>
+        <v>0.312</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.778</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.173</v>
+        <v>0.151</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.726</v>
+        <v>0.717</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.101</v>
+        <v>0.116</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.318</v>
+        <v>0.34</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.714</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.111</v>
+        <v>0.852</v>
       </c>
       <c r="C5" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.099</v>
       </c>
-      <c r="D5" t="n">
+      <c r="P5" t="n">
         <v>0.314</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.667</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.889</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.099</v>
+        <v>0.151</v>
       </c>
       <c r="S5" t="n">
-        <v>0.314</v>
+        <v>0.388</v>
       </c>
       <c r="T5" t="n">
-        <v>0.889</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>0.765</v>
+        <v>0.151</v>
       </c>
       <c r="V5" t="n">
-        <v>0.875</v>
+        <v>0.388</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.778</v>
+        <v>0.852</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.173</v>
+        <v>0.126</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.416</v>
+        <v>0.355</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.667</v>
+        <v>0.151</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.388</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.667</v>
+        <v>2.704</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.099</v>
+        <v>0.036</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.314</v>
+        <v>0.189</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.778</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.173</v>
+        <v>0.151</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.889</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.445</v>
+        <v>0.466</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.297</v>
+        <v>0.262</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.386</v>
+        <v>0.511</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.624</v>
+        <v>0.422</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.797</v>
+        <v>0.766</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.535</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.463</v>
+        <v>0.373</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.638</v>
+        <v>0.643</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.279</v>
+        <v>0.237</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.363</v>
+        <v>2.359</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.778</v>
+        <v>0.744</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.841</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.695</v>
+        <v>0.64</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.494</v>
+        <v>0.42</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.578</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.473</v>
+        <v>0.612</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.916</v>
+        <v>0.617</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.85</v>
+        <v>0.795</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.725</v>
+        <v>0.674</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.715</v>
+        <v>0.754</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.492</v>
+        <v>0.413</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.532</v>
+        <v>2.554</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.778</v>
+        <v>0.785</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.844</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.966</v>
+        <v>0.806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223</v>
+        <v>0.36</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.306</v>
+        <v>0.181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.553</v>
+        <v>0.426</v>
       </c>
       <c r="H8" t="n">
-        <v>0.862</v>
+        <v>0.823</v>
       </c>
       <c r="I8" t="n">
-        <v>0.039</v>
+        <v>0.093</v>
       </c>
       <c r="J8" t="n">
-        <v>0.198</v>
+        <v>0.305</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.658</v>
       </c>
       <c r="L8" t="n">
-        <v>0.222</v>
+        <v>0.199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.471</v>
+        <v>0.446</v>
       </c>
       <c r="N8" t="n">
-        <v>1.14</v>
+        <v>0.829</v>
       </c>
       <c r="O8" t="n">
-        <v>0.194</v>
+        <v>0.106</v>
       </c>
       <c r="P8" t="n">
-        <v>0.441</v>
+        <v>0.326</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.766</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
-        <v>0.102</v>
+        <v>0.149</v>
       </c>
       <c r="S8" t="n">
-        <v>0.319</v>
+        <v>0.386</v>
       </c>
       <c r="T8" t="n">
-        <v>0.751</v>
+        <v>0.705</v>
       </c>
       <c r="U8" t="n">
-        <v>0.429</v>
+        <v>0.146</v>
       </c>
       <c r="V8" t="n">
-        <v>0.655</v>
+        <v>0.382</v>
       </c>
       <c r="W8" t="n">
-        <v>0.821</v>
+        <v>0.718</v>
       </c>
       <c r="X8" t="n">
-        <v>0.041</v>
+        <v>0.167</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.203</v>
+        <v>0.409</v>
       </c>
       <c r="Z8" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0.722</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.726</v>
-      </c>
       <c r="AD8" t="n">
-        <v>0.347</v>
+        <v>0.157</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.589</v>
+        <v>0.396</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.503</v>
+        <v>2.576</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.102</v>
+        <v>0.056</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.319</v>
+        <v>0.237</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.778</v>
+        <v>0.801</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.173</v>
+        <v>0.151</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.959</v>
+        <v>0.899</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.013</v>
+        <v>0.074</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.116</v>
+        <v>0.272</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.834</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="9">
@@ -1297,58 +1297,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.778</v>
+        <v>0.741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173</v>
+        <v>0.192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.416</v>
+        <v>0.438</v>
       </c>
       <c r="E9" t="n">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.173</v>
+        <v>0.247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.416</v>
+        <v>0.497</v>
       </c>
       <c r="H9" t="n">
-        <v>0.667</v>
+        <v>0.704</v>
       </c>
       <c r="I9" t="n">
-        <v>0.222</v>
+        <v>0.209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.471</v>
+        <v>0.457</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.593</v>
       </c>
       <c r="L9" t="n">
-        <v>0.247</v>
+        <v>0.241</v>
       </c>
       <c r="M9" t="n">
-        <v>0.497</v>
+        <v>0.491</v>
       </c>
       <c r="N9" t="n">
-        <v>0.889</v>
+        <v>0.741</v>
       </c>
       <c r="O9" t="n">
-        <v>0.099</v>
+        <v>0.192</v>
       </c>
       <c r="P9" t="n">
-        <v>0.314</v>
+        <v>0.438</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.556</v>
+        <v>0.704</v>
       </c>
       <c r="R9" t="n">
-        <v>0.247</v>
+        <v>0.209</v>
       </c>
       <c r="S9" t="n">
-        <v>0.497</v>
+        <v>0.457</v>
       </c>
       <c r="T9" t="n">
         <v>0.556</v>
@@ -1360,40 +1360,40 @@
         <v>0.497</v>
       </c>
       <c r="W9" t="n">
-        <v>0.556</v>
+        <v>0.63</v>
       </c>
       <c r="X9" t="n">
-        <v>0.247</v>
+        <v>0.233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.497</v>
+        <v>0.483</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.667</v>
+        <v>0.741</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.222</v>
+        <v>0.192</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.444</v>
+        <v>0.63</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.247</v>
+        <v>0.233</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.497</v>
+        <v>0.483</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.223</v>
+        <v>2.371</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.247</v>
+        <v>0.192</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.497</v>
+        <v>0.438</v>
       </c>
       <c r="AI9" t="n">
         <v>0.778</v>
@@ -1405,16 +1405,16 @@
         <v>0.416</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.889</v>
+        <v>0.852</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.099</v>
+        <v>0.126</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.314</v>
+        <v>0.355</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.741</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.852</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.556</v>
+        <v>0.593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.247</v>
+        <v>0.241</v>
       </c>
       <c r="G10" t="n">
-        <v>0.497</v>
+        <v>0.491</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.852</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="K10" t="n">
-        <v>0.556</v>
+        <v>0.704</v>
       </c>
       <c r="L10" t="n">
-        <v>0.247</v>
+        <v>0.209</v>
       </c>
       <c r="M10" t="n">
-        <v>0.497</v>
+        <v>0.457</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.889</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>0.099</v>
+        <v>0.151</v>
       </c>
       <c r="S10" t="n">
-        <v>0.314</v>
+        <v>0.388</v>
       </c>
       <c r="T10" t="n">
-        <v>0.667</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.222</v>
+        <v>0.151</v>
       </c>
       <c r="V10" t="n">
-        <v>0.471</v>
+        <v>0.388</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.778</v>
+        <v>0.852</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.173</v>
+        <v>0.126</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.416</v>
+        <v>0.355</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.667</v>
+        <v>0.741</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.222</v>
+        <v>0.192</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.667</v>
+        <v>2.704</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.099</v>
+        <v>0.036</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.314</v>
+        <v>0.189</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.778</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.173</v>
+        <v>0.151</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.889</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="11">
@@ -1551,85 +1551,85 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.852</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.556</v>
+        <v>0.704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.247</v>
+        <v>0.209</v>
       </c>
       <c r="G11" t="n">
-        <v>0.497</v>
+        <v>0.457</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="K11" t="n">
-        <v>0.556</v>
+        <v>0.704</v>
       </c>
       <c r="L11" t="n">
-        <v>0.247</v>
+        <v>0.209</v>
       </c>
       <c r="M11" t="n">
-        <v>0.497</v>
+        <v>0.457</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.889</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.889</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>0.099</v>
+        <v>0.151</v>
       </c>
       <c r="S11" t="n">
-        <v>0.314</v>
+        <v>0.388</v>
       </c>
       <c r="T11" t="n">
-        <v>0.667</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>0.222</v>
+        <v>0.151</v>
       </c>
       <c r="V11" t="n">
-        <v>0.471</v>
+        <v>0.388</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.778</v>
+        <v>0.852</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.173</v>
+        <v>0.126</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.416</v>
+        <v>0.355</v>
       </c>
       <c r="AC11" t="n">
         <v>0.778</v>
@@ -1641,34 +1641,34 @@
         <v>0.416</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.667</v>
+        <v>2.704</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.099</v>
+        <v>0.036</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.314</v>
+        <v>0.189</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.778</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.173</v>
+        <v>0.151</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.926</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.889</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="12">
@@ -1678,124 +1678,124 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.222</v>
+        <v>1.174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.173</v>
+        <v>0.231</v>
       </c>
       <c r="D12" t="n">
-        <v>0.416</v>
+        <v>0.48</v>
       </c>
       <c r="E12" t="n">
-        <v>1.8</v>
+        <v>1.737</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.247</v>
       </c>
       <c r="G12" t="n">
-        <v>0.748</v>
+        <v>1.116</v>
       </c>
       <c r="H12" t="n">
-        <v>1.444</v>
+        <v>1.48</v>
       </c>
       <c r="I12" t="n">
-        <v>0.469</v>
+        <v>1.05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6850000000000001</v>
+        <v>1.024</v>
       </c>
       <c r="K12" t="n">
-        <v>1.4</v>
+        <v>1.211</v>
       </c>
       <c r="L12" t="n">
-        <v>0.64</v>
+        <v>0.271</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8</v>
+        <v>0.521</v>
       </c>
       <c r="N12" t="n">
-        <v>1.222</v>
+        <v>1.208</v>
       </c>
       <c r="O12" t="n">
-        <v>0.395</v>
+        <v>0.248</v>
       </c>
       <c r="P12" t="n">
-        <v>0.629</v>
+        <v>0.498</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.375</v>
+        <v>1.136</v>
       </c>
       <c r="R12" t="n">
-        <v>0.234</v>
+        <v>0.118</v>
       </c>
       <c r="S12" t="n">
-        <v>0.484</v>
+        <v>0.343</v>
       </c>
       <c r="T12" t="n">
-        <v>1.167</v>
+        <v>1.455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.139</v>
+        <v>0.521</v>
       </c>
       <c r="V12" t="n">
-        <v>0.373</v>
+        <v>0.722</v>
       </c>
       <c r="W12" t="n">
-        <v>1.556</v>
+        <v>1.238</v>
       </c>
       <c r="X12" t="n">
-        <v>0.469</v>
+        <v>0.277</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.526</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.286</v>
+        <v>1.217</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.49</v>
+        <v>0.344</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7</v>
+        <v>0.587</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>1.591</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1.787</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.414</v>
+        <v>1.337</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.486</v>
+        <v>3.394</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.234</v>
+        <v>0.274</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.484</v>
+        <v>0.523</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>1.045</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.111</v>
+        <v>1.08</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.099</v>
+        <v>0.074</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.314</v>
+        <v>0.271</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.162</v>
+        <v>1.131</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.111</v>
+        <v>3.333</v>
       </c>
       <c r="C13" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.186</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.556</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.765</v>
       </c>
-      <c r="D13" t="n">
+      <c r="J13" t="n">
         <v>0.875</v>
       </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.778</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.629</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.111</v>
+        <v>2.185</v>
       </c>
       <c r="L13" t="n">
-        <v>0.543</v>
+        <v>0.595</v>
       </c>
       <c r="M13" t="n">
-        <v>0.737</v>
+        <v>0.772</v>
       </c>
       <c r="N13" t="n">
-        <v>3.444</v>
+        <v>3.296</v>
       </c>
       <c r="O13" t="n">
-        <v>0.247</v>
+        <v>0.801</v>
       </c>
       <c r="P13" t="n">
-        <v>0.497</v>
+        <v>0.895</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.444</v>
+        <v>1.259</v>
       </c>
       <c r="R13" t="n">
-        <v>0.247</v>
+        <v>0.192</v>
       </c>
       <c r="S13" t="n">
-        <v>0.497</v>
+        <v>0.438</v>
       </c>
       <c r="T13" t="n">
-        <v>2.286</v>
+        <v>2.48</v>
       </c>
       <c r="U13" t="n">
-        <v>0.776</v>
+        <v>0.89</v>
       </c>
       <c r="V13" t="n">
-        <v>0.881</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>3.667</v>
+        <v>4.417</v>
       </c>
       <c r="X13" t="n">
-        <v>2.444</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.563</v>
+        <v>3.013</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.889</v>
+        <v>2.259</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.877</v>
+        <v>2.711</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.37</v>
+        <v>1.646</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.667</v>
+        <v>6.111</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.333</v>
+        <v>2.395</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.826</v>
+        <v>1.548</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.556</v>
+        <v>4.482</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.889</v>
+        <v>0.667</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.259</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.438</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.889</v>
+        <v>1.556</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.654</v>
+        <v>0.84</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.286</v>
+        <v>0.916</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.519</v>
+        <v>1.494</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=session-failed for app=Healthily.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=session-failed for app=Healthily.xlsx
@@ -856,7 +856,7 @@
         <v>0.075</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.096</v>
+        <v>0.694</v>
       </c>
       <c r="AG4" t="n">
         <v>0.097</v>
@@ -983,7 +983,7 @@
         <v>0.388</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.704</v>
+        <v>0.963</v>
       </c>
       <c r="AG5" t="n">
         <v>0.036</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.359</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.554</v>
+        <v>0.894</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.396</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.576</v>
+        <v>0.876</v>
       </c>
       <c r="AG8" t="n">
         <v>0.056</v>
@@ -1387,7 +1387,7 @@
         <v>0.483</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.371</v>
+        <v>0.741</v>
       </c>
       <c r="AG9" t="n">
         <v>0.192</v>
@@ -1514,7 +1514,7 @@
         <v>0.438</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.704</v>
+        <v>0.963</v>
       </c>
       <c r="AG10" t="n">
         <v>0.036</v>
@@ -1641,7 +1641,7 @@
         <v>0.416</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.704</v>
+        <v>0.963</v>
       </c>
       <c r="AG11" t="n">
         <v>0.036</v>
@@ -1768,7 +1768,7 @@
         <v>1.337</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.394</v>
+        <v>1.269</v>
       </c>
       <c r="AG12" t="n">
         <v>0.274</v>
@@ -1895,7 +1895,7 @@
         <v>1.548</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.482</v>
+        <v>1.667</v>
       </c>
       <c r="AG13" t="n">
         <v>0.667</v>
